--- a/va_facility_data_2025-02-20/North Pinellas VA Clinic - Facility Data.xlsx"; filename*=UTF-8''North%20Pinellas%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/North Pinellas VA Clinic - Facility Data.xlsx"; filename*=UTF-8''North%20Pinellas%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R4e05e1969b8744688360749c32b31411"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R95efb6973e424b218b292cdcdee3835b"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R2421de6eda9545ef98231693fef2b2f1"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Red7d3b3e7370430b87d4225b588997e5"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rb62bab2c31ec428daa6bdc1f0cc3b6ed"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R8a14cc5dd6994a06a041c6beef2666c4"/>
   </x:sheets>
 </x:workbook>
 </file>
